--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,241 +62,274 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.774+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.001</t>
+  </si>
+  <si>
+    <t>0.778+/-0.003</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
   </si>
   <si>
     <t>0.635</t>
   </si>
   <si>
-    <t>0.716+/-0.004</t>
-  </si>
-  <si>
-    <t>0.658+/-0.007</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.908+/-0.004</t>
-  </si>
-  <si>
-    <t>0.83+/-0.013</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>8.362+/-0.093</t>
-  </si>
-  <si>
-    <t>0.649+/-0.004</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
+    <t>0.724+/-0.003</t>
+  </si>
+  <si>
+    <t>0.66+/-0.009</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.9+/-0.004</t>
+  </si>
+  <si>
+    <t>0.814+/-0.015</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>12.409+/-0.955</t>
+  </si>
+  <si>
+    <t>0.646+/-0.002</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.619+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.008</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.759+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.018</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>1.867+/-0.068</t>
+  </si>
+  <si>
+    <t>0.733+/-0.003</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.694+/-0.003</t>
+  </si>
+  <si>
+    <t>0.664+/-0.005</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.833+/-0.005</t>
+  </si>
+  <si>
+    <t>0.796+/-0.019</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>7.225+/-0.421</t>
+  </si>
+  <si>
+    <t>0.665+/-0.003</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
   </si>
   <si>
     <t>0.574</t>
   </si>
   <si>
-    <t>0.618+/-0.003</t>
-  </si>
-  <si>
-    <t>0.608+/-0.008</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.777+/-0.008</t>
-  </si>
-  <si>
-    <t>0.761+/-0.019</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>1.5+/-0.01</t>
-  </si>
-  <si>
-    <t>0.735+/-0.003</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.695+/-0.004</t>
-  </si>
-  <si>
-    <t>0.664+/-0.006</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.838+/-0.004</t>
-  </si>
-  <si>
-    <t>0.804+/-0.017</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>5.791+/-0.039</t>
-  </si>
-  <si>
-    <t>0.661+/-0.004</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.608+/-0.004</t>
-  </si>
-  <si>
-    <t>0.59+/-0.008</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.908+/-0.001</t>
-  </si>
-  <si>
-    <t>0.88+/-0.014</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.835+/-0.007</t>
-  </si>
-  <si>
-    <t>0.813+/-0.002</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.817+/-0.047</t>
-  </si>
-  <si>
-    <t>0.766+/-0.043</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.82+/-0.08</t>
-  </si>
-  <si>
-    <t>0.753+/-0.085</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>13.185+/-0.789</t>
-  </si>
-  <si>
-    <t>0.67+/-0.002</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.689+/-0.015</t>
-  </si>
-  <si>
-    <t>0.676+/-0.023</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.622+/-0.042</t>
-  </si>
-  <si>
-    <t>0.613+/-0.051</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>2.074+/-0.013</t>
-  </si>
-  <si>
-    <t>0.792+/-0.002</t>
-  </si>
-  <si>
-    <t>0.768+/-0.0</t>
-  </si>
-  <si>
-    <t>0.777</t>
-  </si>
-  <si>
-    <t>0.851+/-0.053</t>
-  </si>
-  <si>
-    <t>0.823+/-0.052</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.718+/-0.076</t>
-  </si>
-  <si>
-    <t>0.695+/-0.078</t>
+    <t>0.614+/-0.003</t>
+  </si>
+  <si>
+    <t>0.595+/-0.007</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.893+/-0.006</t>
+  </si>
+  <si>
+    <t>0.863+/-0.017</t>
+  </si>
+  <si>
+    <t>0.812</t>
+  </si>
+  <si>
+    <t>1.094+/-0.14</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.811+/-0.002</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.843+/-0.003</t>
+  </si>
+  <si>
+    <t>0.792+/-0.011</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.763+/-0.002</t>
+  </si>
+  <si>
+    <t>0.705+/-0.014</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>15.764+/-1.276</t>
+  </si>
+  <si>
+    <t>0.677+/-0.002</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.702+/-0.004</t>
+  </si>
+  <si>
+    <t>0.692+/-0.01</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.616+/-0.004</t>
+  </si>
+  <si>
+    <t>0.605+/-0.016</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>2.968+/-0.436</t>
+  </si>
+  <si>
+    <t>0.793+/-0.003</t>
+  </si>
+  <si>
+    <t>0.772+/-0.0</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.881+/-0.008</t>
+  </si>
+  <si>
+    <t>0.854+/-0.015</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.679+/-0.005</t>
+  </si>
+  <si>
+    <t>0.657+/-0.014</t>
   </si>
   <si>
     <t>0.305</t>
   </si>
   <si>
-    <t>7.94+/-0.171</t>
-  </si>
-  <si>
-    <t>0.687+/-0.003</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.706+/-0.028</t>
-  </si>
-  <si>
-    <t>0.679+/-0.029</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.648+/-0.069</t>
-  </si>
-  <si>
-    <t>0.621+/-0.076</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.971+/-0.008</t>
+    <t>9.993+/-0.231</t>
+  </si>
+  <si>
+    <t>0.69+/-0.003</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.726+/-0.006</t>
+  </si>
+  <si>
+    <t>0.699+/-0.014</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.608+/-0.007</t>
+  </si>
+  <si>
+    <t>0.586+/-0.011</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>1.406+/-0.116</t>
   </si>
 </sst>
 </file>
@@ -685,16 +718,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -702,19 +735,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,19 +755,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,19 +775,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -762,19 +795,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -782,19 +815,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -802,19 +835,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -822,19 +855,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -842,19 +875,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -862,19 +895,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -912,19 +945,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -932,19 +965,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -952,19 +985,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -972,19 +1005,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -992,19 +1025,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,19 +1045,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,19 +1065,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1052,19 +1085,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,19 +1105,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,19 +1125,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
